--- a/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
+++ b/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -67,12 +67,16 @@
   </si>
   <si>
     <t>20082032511</t>
+  </si>
+  <si>
+    <t>17 abr. 2023, 16:20:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,10 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -466,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
+++ b/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAA6E94-773C-49B5-9877-7E3CFCE59E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B3D35-E008-4708-8828-BC6EA32D9A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModificarClienteCorporativo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>FAILED</t>
-  </si>
-  <si>
-    <t>10 mar. 2023, 11:21:06</t>
   </si>
   <si>
     <t>RUC Modifcar</t>
@@ -76,7 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,10 +417,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -438,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -458,10 +454,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -470,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
+++ b/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B3D35-E008-4708-8828-BC6EA32D9A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A8D72-463D-416C-818E-5E8C7A51DA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>RUC Modifcar</t>
   </si>
   <si>
-    <t>82032511</t>
-  </si>
-  <si>
-    <t>20082032511</t>
-  </si>
-  <si>
     <t>17 abr. 2023, 16:20:48</t>
+  </si>
+  <si>
+    <t>82584292</t>
+  </si>
+  <si>
+    <t>20552103816</t>
   </si>
 </sst>
 </file>
@@ -454,10 +454,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
+++ b/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -67,12 +67,16 @@
   </si>
   <si>
     <t>20552103816</t>
+  </si>
+  <si>
+    <t>3 jul. 2023, 10:59:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,10 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.08984375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -466,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
+++ b/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A8D72-463D-416C-818E-5E8C7A51DA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50F5980-EA71-4D21-9C5F-5E485D63D9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>usuario</t>
   </si>
@@ -51,32 +51,19 @@
     <t>1234566</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>RUC Modifcar</t>
   </si>
   <si>
-    <t>17 abr. 2023, 16:20:48</t>
-  </si>
-  <si>
     <t>82584292</t>
   </si>
   <si>
     <t>20552103816</t>
-  </si>
-  <si>
-    <t>3 jul. 2023, 10:59:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,15 +403,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -438,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -458,19 +445,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
+++ b/src/Excel/entregable2/ModificarClienteCorporativo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50F5980-EA71-4D21-9C5F-5E485D63D9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D95EF-B556-41DC-A6C1-EFC4E35CABF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="1830" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModificarClienteCorporativo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>20552103816</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>14 jul. 2023, 09:06:04</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,6 +459,15 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
